--- a/Documents/スロー数字手裏剣クラス設計.xlsx
+++ b/Documents/スロー数字手裏剣クラス設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8450682869912ffe/ゲーム制作/スロー数字手裏剣/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohmiwing/Documents/UnityProjects/Personal/２D/SujiShuriken/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{E746B88E-42AF-494C-B68C-644FD75E4D7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DB4A88DE-21D8-455A-8C9D-D83D5D0436FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B037BB-17F5-884B-BA9D-C654323A8112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22248" windowHeight="13176" activeTab="1" xr2:uid="{52E4D110-06CD-4E0D-BF6F-F7AB9716104B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="1" xr2:uid="{52E4D110-06CD-4E0D-BF6F-F7AB9716104B}"/>
   </bookViews>
   <sheets>
     <sheet name="namespaces" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +126,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="390525" y="324522"/>
-          <a:ext cx="2691317" cy="1792269"/>
+          <a:off x="390525" y="315558"/>
+          <a:ext cx="2691317" cy="1720551"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -251,8 +251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="407670" y="2236806"/>
-          <a:ext cx="2697032" cy="1788459"/>
+          <a:off x="407670" y="2156124"/>
+          <a:ext cx="2697032" cy="1716741"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -380,8 +380,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3383387" y="307377"/>
-          <a:ext cx="2705889" cy="1824654"/>
+          <a:off x="3383387" y="298413"/>
+          <a:ext cx="2705889" cy="1752936"/>
           <a:chOff x="1243404" y="1411774"/>
           <a:chExt cx="3077136" cy="2043896"/>
         </a:xfrm>
@@ -505,8 +505,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6251201" y="314997"/>
-          <a:ext cx="2695127" cy="1799889"/>
+          <a:off x="6251201" y="306033"/>
+          <a:ext cx="2695127" cy="1728171"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -634,8 +634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3424630" y="2357494"/>
-          <a:ext cx="2698936" cy="1791596"/>
+          <a:off x="3424630" y="2267846"/>
+          <a:ext cx="2698936" cy="1728844"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -763,8 +763,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="213696" y="8969972"/>
-          <a:ext cx="2697031" cy="1788459"/>
+          <a:off x="213696" y="8629314"/>
+          <a:ext cx="2697031" cy="1716741"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -888,8 +888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="459553" y="4377915"/>
-          <a:ext cx="2702747" cy="1794174"/>
+          <a:off x="459553" y="4216551"/>
+          <a:ext cx="2702747" cy="1722456"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -1013,8 +1013,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3404571" y="4466107"/>
-          <a:ext cx="2714176" cy="1777588"/>
+          <a:off x="3404571" y="4295777"/>
+          <a:ext cx="2714176" cy="1714836"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -1138,8 +1138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="404532" y="6586483"/>
-          <a:ext cx="2708462" cy="1785208"/>
+          <a:off x="404532" y="6335471"/>
+          <a:ext cx="2708462" cy="1722456"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -1263,8 +1263,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6589283" y="2522895"/>
-          <a:ext cx="2717987" cy="1786552"/>
+          <a:off x="6589283" y="2433247"/>
+          <a:ext cx="2717987" cy="1714836"/>
           <a:chOff x="1243404" y="1409700"/>
           <a:chExt cx="3077136" cy="2045970"/>
         </a:xfrm>
@@ -1388,8 +1388,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6578779" y="4461847"/>
-          <a:ext cx="2713475" cy="1777588"/>
+          <a:off x="6578779" y="4291517"/>
+          <a:ext cx="2713475" cy="1714836"/>
           <a:chOff x="1243404" y="1410683"/>
           <a:chExt cx="3077136" cy="2044987"/>
         </a:xfrm>
@@ -1518,8 +1518,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="157779" y="908347"/>
-          <a:ext cx="8182646" cy="13358312"/>
+          <a:off x="157779" y="881453"/>
+          <a:ext cx="8182646" cy="12838358"/>
           <a:chOff x="1243404" y="1819906"/>
           <a:chExt cx="5247828" cy="3717199"/>
         </a:xfrm>
@@ -1608,7 +1608,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1"/>
-              <a:t>MobileInput</a:t>
+              <a:t>TouchManager</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1"/>
           </a:p>
@@ -1643,8 +1643,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="354554" y="16283281"/>
-          <a:ext cx="19252833" cy="19672361"/>
+          <a:off x="354554" y="15664717"/>
+          <a:ext cx="19252833" cy="18910361"/>
           <a:chOff x="1244652" y="1664740"/>
           <a:chExt cx="4964419" cy="4237469"/>
         </a:xfrm>
@@ -1737,7 +1737,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0"/>
-              <a:t>Shuriken</a:t>
+              <a:t>Shuriken_Button</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1"/>
           </a:p>
@@ -1772,8 +1772,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="322170" y="10260777"/>
-          <a:ext cx="3317501" cy="3249033"/>
+          <a:off x="322170" y="9866329"/>
+          <a:ext cx="3317501" cy="3132493"/>
           <a:chOff x="6000750" y="1718416"/>
           <a:chExt cx="2134914" cy="2219976"/>
         </a:xfrm>
@@ -2004,8 +2004,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9011104" y="26293034"/>
-          <a:ext cx="3669479" cy="4593066"/>
+          <a:off x="9011104" y="25288986"/>
+          <a:ext cx="3669479" cy="4413772"/>
           <a:chOff x="6000750" y="1596390"/>
           <a:chExt cx="2371474" cy="4516564"/>
         </a:xfrm>
@@ -2659,7 +2659,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8797213" y="48521"/>
-          <a:ext cx="23129946" cy="6053184"/>
+          <a:ext cx="23129946" cy="5820102"/>
           <a:chOff x="1247774" y="1409700"/>
           <a:chExt cx="7114216" cy="5312934"/>
         </a:xfrm>
@@ -2787,8 +2787,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9070833" y="22525063"/>
-          <a:ext cx="3005528" cy="3498251"/>
+          <a:off x="9070833" y="21664451"/>
+          <a:ext cx="3005528" cy="3363781"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="3386490"/>
         </a:xfrm>
@@ -3247,8 +3247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12384304" y="22707376"/>
-          <a:ext cx="2994517" cy="1927312"/>
+          <a:off x="12384304" y="21837800"/>
+          <a:ext cx="2994517" cy="1855594"/>
           <a:chOff x="6000750" y="1580337"/>
           <a:chExt cx="2134914" cy="1884538"/>
         </a:xfrm>
@@ -3477,8 +3477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20011864" y="14856471"/>
-          <a:ext cx="16064065" cy="11883933"/>
+          <a:off x="20011864" y="14291695"/>
+          <a:ext cx="16064065" cy="11426733"/>
           <a:chOff x="1247772" y="1635209"/>
           <a:chExt cx="7113246" cy="5093307"/>
         </a:xfrm>
@@ -3602,8 +3602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20183024" y="19411389"/>
-          <a:ext cx="4065225" cy="3193116"/>
+          <a:off x="20183024" y="18667319"/>
+          <a:ext cx="4065225" cy="3076574"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="2324106"/>
         </a:xfrm>
@@ -3991,8 +3991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5628623" y="28780410"/>
-          <a:ext cx="2380481" cy="1901637"/>
+          <a:off x="5628623" y="27677752"/>
+          <a:ext cx="2380481" cy="1829919"/>
           <a:chOff x="6000750" y="1597907"/>
           <a:chExt cx="2367922" cy="1856943"/>
         </a:xfrm>
@@ -4335,8 +4335,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19146706" y="7211209"/>
-          <a:ext cx="15613717" cy="7248413"/>
+          <a:off x="19146706" y="6942267"/>
+          <a:ext cx="15613717" cy="6961543"/>
           <a:chOff x="1247774" y="1409700"/>
           <a:chExt cx="7113244" cy="5318816"/>
         </a:xfrm>
@@ -4460,8 +4460,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24972306" y="11928213"/>
-          <a:ext cx="3751617" cy="2310093"/>
+          <a:off x="24972306" y="11471013"/>
+          <a:ext cx="3751617" cy="2220445"/>
           <a:chOff x="6000118" y="1610110"/>
           <a:chExt cx="2135546" cy="1967167"/>
         </a:xfrm>
@@ -4774,8 +4774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23450886" y="8943973"/>
-          <a:ext cx="3802939" cy="2682689"/>
+          <a:off x="23450886" y="8603315"/>
+          <a:ext cx="3802939" cy="2584077"/>
           <a:chOff x="6000118" y="1610110"/>
           <a:chExt cx="2135546" cy="2281364"/>
         </a:xfrm>
@@ -5128,8 +5128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13725191" y="29271570"/>
-          <a:ext cx="5152356" cy="2321522"/>
+          <a:off x="13725191" y="28150982"/>
+          <a:ext cx="5152356" cy="2231874"/>
           <a:chOff x="6000118" y="1610110"/>
           <a:chExt cx="2135546" cy="1967167"/>
         </a:xfrm>
@@ -5715,8 +5715,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20364897" y="27575433"/>
-          <a:ext cx="15224762" cy="11396945"/>
+          <a:off x="20364897" y="26517597"/>
+          <a:ext cx="15224762" cy="10957675"/>
           <a:chOff x="1247774" y="1719253"/>
           <a:chExt cx="7113244" cy="5009263"/>
         </a:xfrm>
@@ -5840,8 +5840,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25739492" y="31841374"/>
-          <a:ext cx="3933095" cy="4415932"/>
+          <a:off x="25739492" y="30622174"/>
+          <a:ext cx="3933095" cy="4245602"/>
           <a:chOff x="6000118" y="1606777"/>
           <a:chExt cx="2137394" cy="3760490"/>
         </a:xfrm>
@@ -6520,8 +6520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36747717" y="14804426"/>
-          <a:ext cx="10363716" cy="13289281"/>
+          <a:off x="36747717" y="14239650"/>
+          <a:ext cx="10363716" cy="12778293"/>
           <a:chOff x="1249265" y="1405845"/>
           <a:chExt cx="7111753" cy="5322671"/>
         </a:xfrm>
@@ -6645,8 +6645,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29377454" y="8206740"/>
-          <a:ext cx="3777055" cy="3474496"/>
+          <a:off x="29377454" y="7892976"/>
+          <a:ext cx="3777055" cy="3340024"/>
           <a:chOff x="6000750" y="1599156"/>
           <a:chExt cx="2134914" cy="2322239"/>
         </a:xfrm>
@@ -7301,8 +7301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8978191" y="6325881"/>
-          <a:ext cx="9493584" cy="9717803"/>
+          <a:off x="8978191" y="6083833"/>
+          <a:ext cx="9493584" cy="9350251"/>
           <a:chOff x="1247774" y="1409700"/>
           <a:chExt cx="7113244" cy="8327898"/>
         </a:xfrm>
@@ -7426,8 +7426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14040554" y="7316898"/>
-          <a:ext cx="3802938" cy="2669353"/>
+          <a:off x="14040554" y="7038992"/>
+          <a:ext cx="3802938" cy="2570741"/>
           <a:chOff x="6000118" y="1610110"/>
           <a:chExt cx="2135546" cy="2281364"/>
         </a:xfrm>
@@ -7851,8 +7851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9496072" y="7271176"/>
-          <a:ext cx="3785407" cy="5360094"/>
+          <a:off x="9496072" y="6993270"/>
+          <a:ext cx="3785407" cy="5153906"/>
           <a:chOff x="5998597" y="1606234"/>
           <a:chExt cx="2137066" cy="4539769"/>
         </a:xfrm>
@@ -8899,8 +8899,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13920652" y="10430676"/>
-          <a:ext cx="3766743" cy="2317711"/>
+          <a:off x="13920652" y="10036228"/>
+          <a:ext cx="3766743" cy="2228065"/>
           <a:chOff x="6000118" y="1610110"/>
           <a:chExt cx="2135546" cy="1967167"/>
         </a:xfrm>
@@ -9288,8 +9288,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9507365" y="13416598"/>
-          <a:ext cx="3778287" cy="2329142"/>
+          <a:off x="9507365" y="12905610"/>
+          <a:ext cx="3778287" cy="2239494"/>
           <a:chOff x="6000118" y="1610110"/>
           <a:chExt cx="2135546" cy="1967167"/>
         </a:xfrm>
@@ -9743,8 +9743,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41695296" y="17161922"/>
-          <a:ext cx="3788484" cy="3985820"/>
+          <a:off x="41695296" y="16507498"/>
+          <a:ext cx="3788484" cy="3833420"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="3451417"/>
         </a:xfrm>
@@ -10354,8 +10354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13935401" y="1069408"/>
-          <a:ext cx="3594174" cy="4622539"/>
+          <a:off x="13935401" y="1033550"/>
+          <a:ext cx="3594174" cy="4443245"/>
           <a:chOff x="6000750" y="1520408"/>
           <a:chExt cx="2134914" cy="3920560"/>
         </a:xfrm>
@@ -11237,8 +11237,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25413849" y="28402289"/>
-          <a:ext cx="3929285" cy="2868814"/>
+          <a:off x="25413849" y="27317559"/>
+          <a:ext cx="3929285" cy="2752274"/>
           <a:chOff x="6000118" y="1606777"/>
           <a:chExt cx="2137394" cy="2443759"/>
         </a:xfrm>
@@ -11583,8 +11583,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="30785528" y="31755649"/>
-          <a:ext cx="3933096" cy="3011721"/>
+          <a:off x="30785528" y="30536449"/>
+          <a:ext cx="3933096" cy="2895179"/>
           <a:chOff x="6000118" y="1606777"/>
           <a:chExt cx="2137394" cy="2557614"/>
         </a:xfrm>
@@ -11818,8 +11818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="30499778" y="28444871"/>
-          <a:ext cx="3933096" cy="2875762"/>
+          <a:off x="30499778" y="27351177"/>
+          <a:ext cx="3933096" cy="2768186"/>
           <a:chOff x="6000118" y="1606777"/>
           <a:chExt cx="2137394" cy="2443759"/>
         </a:xfrm>
@@ -12889,8 +12889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4282777" y="2172371"/>
-          <a:ext cx="3857176" cy="4093957"/>
+          <a:off x="4282777" y="2091689"/>
+          <a:ext cx="3857176" cy="3941557"/>
           <a:chOff x="6000750" y="1718416"/>
           <a:chExt cx="2134914" cy="2788664"/>
         </a:xfrm>
@@ -12957,15 +12957,29 @@
               <a:t>public </a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0"/>
-              <a:t>Flick</a:t>
-            </a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>LongTap</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0"/>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" baseline="0"/>
-              <a:t>フリッククラス</a:t>
+              <a:t>ロングタップクラス</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1"/>
           </a:p>
@@ -13698,8 +13712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12900292" y="36600837"/>
-          <a:ext cx="6788037" cy="11541249"/>
+          <a:off x="12900292" y="35193379"/>
+          <a:ext cx="6788037" cy="11101977"/>
           <a:chOff x="1245760" y="1635209"/>
           <a:chExt cx="7113749" cy="5092188"/>
         </a:xfrm>
@@ -13823,8 +13837,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20942001" y="31699597"/>
-          <a:ext cx="3125091" cy="3657203"/>
+          <a:off x="20942001" y="30480397"/>
+          <a:ext cx="3125091" cy="3522733"/>
           <a:chOff x="6000750" y="1519639"/>
           <a:chExt cx="2134914" cy="3928162"/>
         </a:xfrm>
@@ -14408,8 +14422,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35657117" y="8049970"/>
-          <a:ext cx="5334001" cy="6261511"/>
+          <a:off x="35657117" y="7745170"/>
+          <a:ext cx="5334001" cy="6019463"/>
           <a:chOff x="1247774" y="1409700"/>
           <a:chExt cx="7113244" cy="5318816"/>
         </a:xfrm>
@@ -14533,8 +14547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35969201" y="11217759"/>
-          <a:ext cx="3796105" cy="2327013"/>
+          <a:off x="35969201" y="10787453"/>
+          <a:ext cx="3796105" cy="2237367"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="1977077"/>
         </a:xfrm>
@@ -14760,8 +14774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20792625" y="23266214"/>
-          <a:ext cx="3756101" cy="2328918"/>
+          <a:off x="20792625" y="22378708"/>
+          <a:ext cx="3756101" cy="2239272"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="1977077"/>
         </a:xfrm>
@@ -14983,8 +14997,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24883731" y="24263216"/>
-          <a:ext cx="3753539" cy="2328917"/>
+          <a:off x="24883731" y="23330886"/>
+          <a:ext cx="3753539" cy="2239271"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="1977077"/>
         </a:xfrm>
@@ -15353,8 +15367,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18003226" y="1069743"/>
-          <a:ext cx="3596081" cy="4407691"/>
+          <a:off x="18003226" y="1033885"/>
+          <a:ext cx="3596081" cy="4237361"/>
           <a:chOff x="6000750" y="1520408"/>
           <a:chExt cx="2134914" cy="4318222"/>
         </a:xfrm>
@@ -16414,8 +16428,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="30687619" y="23177412"/>
-          <a:ext cx="3741889" cy="2331418"/>
+          <a:off x="30687619" y="22289906"/>
+          <a:ext cx="3741889" cy="2241772"/>
           <a:chOff x="6000750" y="1600199"/>
           <a:chExt cx="2134914" cy="1977078"/>
         </a:xfrm>
@@ -17052,8 +17066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14099689" y="37946927"/>
-          <a:ext cx="2985467" cy="2084984"/>
+          <a:off x="14099689" y="36494645"/>
+          <a:ext cx="2985467" cy="2004302"/>
           <a:chOff x="6000750" y="1601525"/>
           <a:chExt cx="2134914" cy="1863350"/>
         </a:xfrm>
@@ -17266,8 +17280,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9404666" y="33009576"/>
-          <a:ext cx="2988989" cy="1789619"/>
+          <a:off x="9404666" y="31745552"/>
+          <a:ext cx="2988989" cy="1717901"/>
           <a:chOff x="6001185" y="1580466"/>
           <a:chExt cx="2133269" cy="1749781"/>
         </a:xfrm>
@@ -17451,8 +17465,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1474247" y="30897799"/>
-          <a:ext cx="9424624" cy="4526741"/>
+          <a:off x="1474247" y="29714457"/>
+          <a:ext cx="9424624" cy="4356413"/>
           <a:chOff x="5029202" y="27046517"/>
           <a:chExt cx="6435217" cy="4527457"/>
         </a:xfrm>
@@ -18795,8 +18809,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21022896" y="35797812"/>
-          <a:ext cx="2994442" cy="2590403"/>
+          <a:off x="21022896" y="34426212"/>
+          <a:ext cx="2994442" cy="2491791"/>
           <a:chOff x="6000750" y="1519639"/>
           <a:chExt cx="2134914" cy="2782324"/>
         </a:xfrm>
@@ -19133,8 +19147,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20999150" y="28705324"/>
-          <a:ext cx="2418582" cy="1502664"/>
+          <a:off x="20999150" y="27602666"/>
+          <a:ext cx="2418582" cy="1448874"/>
           <a:chOff x="6000750" y="1597907"/>
           <a:chExt cx="2367922" cy="1490008"/>
         </a:xfrm>
@@ -20000,8 +20014,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="374166" y="2163406"/>
-          <a:ext cx="3587339" cy="5806218"/>
+          <a:off x="374166" y="2082724"/>
+          <a:ext cx="3587339" cy="5582100"/>
           <a:chOff x="6000750" y="1718416"/>
           <a:chExt cx="2134914" cy="3954998"/>
         </a:xfrm>
@@ -20289,8 +20303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1607820" y="22740668"/>
-          <a:ext cx="2384291" cy="4063803"/>
+          <a:off x="1607820" y="21871092"/>
+          <a:ext cx="2384291" cy="3902437"/>
           <a:chOff x="6000750" y="1597907"/>
           <a:chExt cx="2367922" cy="3941985"/>
         </a:xfrm>
@@ -21546,8 +21560,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41798390" y="24451345"/>
-          <a:ext cx="3790389" cy="2571303"/>
+          <a:off x="41798390" y="23519015"/>
+          <a:ext cx="3790389" cy="2472691"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="2224904"/>
         </a:xfrm>
@@ -22626,8 +22640,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37057852" y="25712903"/>
-          <a:ext cx="3780864" cy="2279389"/>
+          <a:off x="37057852" y="24726785"/>
+          <a:ext cx="3780864" cy="2189743"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="1977077"/>
         </a:xfrm>
@@ -22884,8 +22898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37260903" y="18277578"/>
-          <a:ext cx="3788484" cy="2283198"/>
+          <a:off x="37260903" y="17578330"/>
+          <a:ext cx="3788484" cy="2193552"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="1977077"/>
         </a:xfrm>
@@ -23173,8 +23187,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37055388" y="15610353"/>
-          <a:ext cx="3792407" cy="2275579"/>
+          <a:off x="37055388" y="15018683"/>
+          <a:ext cx="3792407" cy="2185931"/>
           <a:chOff x="6000750" y="1600199"/>
           <a:chExt cx="2134914" cy="1977078"/>
         </a:xfrm>
@@ -23414,8 +23428,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36997221" y="21306304"/>
-          <a:ext cx="3791208" cy="3590925"/>
+          <a:off x="36997221" y="20490516"/>
+          <a:ext cx="3791208" cy="3456455"/>
           <a:chOff x="5998589" y="1610110"/>
           <a:chExt cx="2136922" cy="2836242"/>
         </a:xfrm>
@@ -24605,8 +24619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="30864426" y="17107507"/>
-          <a:ext cx="3766762" cy="3479939"/>
+          <a:off x="30864426" y="16453083"/>
+          <a:ext cx="3766762" cy="3345469"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="2963872"/>
         </a:xfrm>
@@ -25282,8 +25296,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41720285" y="21346979"/>
-          <a:ext cx="3796104" cy="2569398"/>
+          <a:off x="41720285" y="20531191"/>
+          <a:ext cx="3796104" cy="2470786"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="2224904"/>
         </a:xfrm>
@@ -25669,8 +25683,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4019198" y="18203647"/>
-          <a:ext cx="2382272" cy="1901637"/>
+          <a:off x="4019198" y="17504399"/>
+          <a:ext cx="2382272" cy="1829921"/>
           <a:chOff x="6000750" y="1597907"/>
           <a:chExt cx="2367922" cy="1856943"/>
         </a:xfrm>
@@ -26652,8 +26666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4072987" y="20391035"/>
-          <a:ext cx="2382272" cy="1901637"/>
+          <a:off x="4072987" y="19611105"/>
+          <a:ext cx="2382272" cy="1829919"/>
           <a:chOff x="6000750" y="1597907"/>
           <a:chExt cx="2367922" cy="1856943"/>
         </a:xfrm>
@@ -27015,8 +27029,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="195942" y="478971"/>
-          <a:ext cx="19374753" cy="19650591"/>
+          <a:off x="195942" y="493485"/>
+          <a:ext cx="19273153" cy="20274706"/>
           <a:chOff x="3374571" y="2307771"/>
           <a:chExt cx="19374753" cy="19650591"/>
         </a:xfrm>
@@ -27178,8 +27192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1800574" y="2354757"/>
-          <a:ext cx="3050793" cy="3394341"/>
+          <a:off x="1793316" y="2427328"/>
+          <a:ext cx="3032651" cy="3503199"/>
           <a:chOff x="6000750" y="1600200"/>
           <a:chExt cx="2134914" cy="3386490"/>
         </a:xfrm>
@@ -27672,8 +27686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2699657" y="4343400"/>
-          <a:ext cx="536207" cy="830543"/>
+          <a:off x="2685143" y="4481286"/>
+          <a:ext cx="536207" cy="852314"/>
           <a:chOff x="11407325" y="3949401"/>
           <a:chExt cx="525283" cy="820383"/>
         </a:xfrm>
@@ -27857,8 +27871,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4724400" y="4800600"/>
-          <a:ext cx="3822805" cy="2233780"/>
+          <a:off x="4699000" y="4953000"/>
+          <a:ext cx="3804663" cy="2299094"/>
           <a:chOff x="6000118" y="1610110"/>
           <a:chExt cx="2135546" cy="1967167"/>
         </a:xfrm>
@@ -28237,8 +28251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1776549" y="3185160"/>
-          <a:ext cx="773974" cy="1706880"/>
+          <a:off x="1769291" y="3279503"/>
+          <a:ext cx="770346" cy="1764937"/>
           <a:chOff x="1767840" y="3185160"/>
           <a:chExt cx="769620" cy="1706880"/>
         </a:xfrm>
@@ -28673,8 +28687,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="674914" y="5715000"/>
-          <a:ext cx="3006406" cy="1789619"/>
+          <a:off x="671286" y="5896429"/>
+          <a:ext cx="2991892" cy="1840419"/>
           <a:chOff x="6001185" y="1580466"/>
           <a:chExt cx="2133269" cy="1749781"/>
         </a:xfrm>
@@ -28858,8 +28872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="979715" y="8058150"/>
-          <a:ext cx="8194221" cy="7391400"/>
+          <a:off x="976087" y="8312150"/>
+          <a:ext cx="8150677" cy="7623629"/>
           <a:chOff x="3374571" y="2307771"/>
           <a:chExt cx="19374753" cy="19650591"/>
         </a:xfrm>
@@ -29302,7 +29316,7 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29315,11 +29329,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO121" sqref="AO121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29334,7 +29348,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29351,7 +29365,7 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
